--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000LE-4G_041023.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000LE-4G_041023.xlsx
@@ -600,9 +600,6 @@
     <t>Số lượng xuất theo BOMLIST</t>
   </si>
   <si>
-    <t>Hà Nội, Ngày 04 Tháng 10 Năm 2023</t>
-  </si>
-  <si>
     <t>Xuất kho linh kiện gia công 1000 thiết bị TG102LE-4G</t>
   </si>
   <si>
@@ -616,6 +613,9 @@
   </si>
   <si>
     <t>VT_IC_BGU7005</t>
+  </si>
+  <si>
+    <t>Hà Nội, Ngày 05 Tháng 10 Năm 2023</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -736,12 +736,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -753,8 +747,43 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1233,7 +1262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1374,16 +1403,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1396,9 +1421,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1417,18 +1439,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,43 +1463,82 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1513,67 +1568,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,8 +1580,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1606,40 +1625,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1687,15 +1679,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1735,8 +1718,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1759,28 +1766,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1804,64 +1811,96 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1904,7 +1943,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1995,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2044,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2096,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2145,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2197,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2295,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2344,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2393,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2437,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2511,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,57 +2852,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="105" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="105"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="105" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="105"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="105" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="105"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2887,179 +2926,179 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="73" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107" t="s">
+      <c r="H8" s="97"/>
+      <c r="I8" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107" t="s">
+      <c r="J8" s="97"/>
+      <c r="K8" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="107"/>
-      <c r="M8" s="73" t="s">
+      <c r="L8" s="97"/>
+      <c r="M8" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="72">
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="69">
         <v>985</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="112" t="s">
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="73"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="72">
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="69">
         <v>985</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="112" t="s">
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="112"/>
-      <c r="M10" s="73"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <v>3</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="72">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="69">
         <v>985</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112" t="s">
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="71"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <v>4</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="72">
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="69">
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112" t="s">
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="71"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="119" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="119" t="s">
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="121"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="122" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="122" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="124"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3122,25 +3161,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="125" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="125" t="s">
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3153,19 +3192,12 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3182,12 +3214,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3221,51 +3260,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="105" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="105"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="105"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="105" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="105"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3292,138 +3331,138 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="113" t="s">
+      <c r="G8" s="102"/>
+      <c r="H8" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="131"/>
-      <c r="J8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="77">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="128">
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="116">
         <v>6</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="128" t="s">
+      <c r="G9" s="118"/>
+      <c r="H9" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="129"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="77"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77">
+      <c r="A10" s="73">
         <v>2</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="128">
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="116">
         <v>4</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="128" t="s">
+      <c r="G10" s="118"/>
+      <c r="H10" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="77" t="s">
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="73" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77">
+      <c r="A11" s="73">
         <v>3</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="128">
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="116">
         <v>2</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="128" t="s">
+      <c r="G11" s="118"/>
+      <c r="H11" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="77" t="s">
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="73" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="119" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="121"/>
-      <c r="H13" s="119" t="s">
+      <c r="G13" s="96"/>
+      <c r="H13" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="122" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="122" t="s">
+      <c r="G14" s="87"/>
+      <c r="H14" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3478,23 +3517,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="125" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="125" t="s">
+      <c r="G19" s="90"/>
+      <c r="H19" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="127"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3507,6 +3546,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A19:E19"/>
@@ -3516,24 +3573,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3547,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3565,1528 +3604,1520 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="138" t="s">
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="105" t="s">
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="105"/>
+      <c r="H2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="105" t="s">
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="207"/>
     </row>
     <row r="4" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="105" t="s">
+      <c r="A4" s="204"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="105"/>
+      <c r="H4" s="207"/>
     </row>
     <row r="5" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="212" t="s">
         <v>92</v>
       </c>
+      <c r="B5" s="212"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
     </row>
     <row r="6" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="145" t="s">
+      <c r="E6" s="213"/>
+      <c r="F6" s="214" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+    </row>
+    <row r="7" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="212" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="215" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="216" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="215" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="217">
+        <v>1</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="227">
+        <v>3284</v>
+      </c>
+      <c r="F9" s="220"/>
+      <c r="G9" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-    </row>
-    <row r="7" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="60" t="s">
+      <c r="H9" s="217" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="217">
         <v>2</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68">
-        <v>1</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="220">
+      <c r="B10" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="219">
+        <v>7000</v>
+      </c>
+      <c r="E10" s="227">
+        <v>18</v>
+      </c>
+      <c r="F10" s="220"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="217"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="217">
+        <v>3</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="219">
         <v>1000</v>
       </c>
-      <c r="E9" s="97">
-        <v>3282</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68">
-        <v>2</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="220">
-        <v>7000</v>
-      </c>
-      <c r="E10" s="97">
-        <v>-32</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="68"/>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68">
-        <v>3</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="97">
-        <v>1058</v>
-      </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="78"/>
+      <c r="E11" s="227">
+        <v>1062</v>
+      </c>
+      <c r="F11" s="220"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="215"/>
       <c r="S11" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68">
+      <c r="A12" s="217">
         <v>4</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="220">
+      <c r="C12" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="219">
         <v>4000</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="227">
+        <v>157</v>
+      </c>
+      <c r="F12" s="220"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="215"/>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="217">
+        <v>5</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="219">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="227">
+        <v>521</v>
+      </c>
+      <c r="F13" s="220"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="215"/>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="217">
+        <v>6</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="227">
+        <v>936</v>
+      </c>
+      <c r="F14" s="220"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="215"/>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="217">
+        <v>7</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="227">
+        <v>336</v>
+      </c>
+      <c r="F15" s="220"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="215"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="217">
+        <v>8</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="219">
+        <v>27000</v>
+      </c>
+      <c r="E16" s="227">
+        <v>1184</v>
+      </c>
+      <c r="F16" s="220"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="215"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="217">
+        <v>9</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="219">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="227">
+        <v>141</v>
+      </c>
+      <c r="F17" s="220"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="215"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="217">
+        <v>10</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="227">
+        <v>6</v>
+      </c>
+      <c r="F18" s="220"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="215"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="217">
+        <v>11</v>
+      </c>
+      <c r="B19" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68">
+      <c r="C19" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="219">
+        <v>8000</v>
+      </c>
+      <c r="E19" s="227">
+        <v>3078</v>
+      </c>
+      <c r="F19" s="220"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="215"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="217">
+        <v>12</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="219">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="227">
+        <v>1465</v>
+      </c>
+      <c r="F20" s="220"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="215"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="217">
+        <v>13</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="219">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="227">
+        <v>18</v>
+      </c>
+      <c r="F21" s="220"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="215"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="217">
+        <v>14</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="227">
+        <v>0</v>
+      </c>
+      <c r="F22" s="220"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="215"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="217">
+        <v>15</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="227">
+        <v>486</v>
+      </c>
+      <c r="F23" s="220"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="215"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="217">
+        <v>16</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="227">
+        <v>976</v>
+      </c>
+      <c r="F24" s="220"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="215"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="217">
+        <v>17</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="227">
+        <v>1014</v>
+      </c>
+      <c r="F25" s="220"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="215"/>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="217">
+        <v>18</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="227">
+        <v>338</v>
+      </c>
+      <c r="F26" s="220"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="215"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="217">
+        <v>19</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="227">
+        <v>299</v>
+      </c>
+      <c r="F27" s="220"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="215"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="217">
+        <v>20</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="227">
+        <v>994</v>
+      </c>
+      <c r="F28" s="220"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="215"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="217">
+        <v>21</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="227">
+        <v>7</v>
+      </c>
+      <c r="F29" s="220"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="215"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="217">
+        <v>22</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="227">
+        <v>6</v>
+      </c>
+      <c r="F30" s="220"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="215"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="217">
+        <v>23</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="219">
+        <v>3000</v>
+      </c>
+      <c r="E31" s="227">
+        <v>19</v>
+      </c>
+      <c r="F31" s="220"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="215"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="217">
+        <v>24</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="219">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="227">
+        <v>468</v>
+      </c>
+      <c r="F32" s="220"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="215"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="217">
+        <v>25</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="219">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="227">
+        <v>1010</v>
+      </c>
+      <c r="F33" s="220"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="215"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="217">
+        <v>26</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="219">
+        <v>3000</v>
+      </c>
+      <c r="E34" s="227">
+        <v>87</v>
+      </c>
+      <c r="F34" s="220"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="215"/>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="217">
+        <v>27</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="227">
+        <v>935</v>
+      </c>
+      <c r="F35" s="220"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="215"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="217">
+        <v>28</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="219">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="227">
+        <v>508</v>
+      </c>
+      <c r="F36" s="220"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="215"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="217">
+        <v>29</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="219">
+        <v>3000</v>
+      </c>
+      <c r="E37" s="227">
+        <v>1999</v>
+      </c>
+      <c r="F37" s="220"/>
+      <c r="G37" s="223"/>
+      <c r="H37" s="215"/>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="217">
+        <v>30</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="219">
+        <v>6000</v>
+      </c>
+      <c r="E38" s="227">
+        <v>248</v>
+      </c>
+      <c r="F38" s="220"/>
+      <c r="G38" s="223"/>
+      <c r="H38" s="215"/>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="217">
+        <v>31</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="219">
+        <v>8000</v>
+      </c>
+      <c r="E39" s="227">
+        <v>2046</v>
+      </c>
+      <c r="F39" s="220"/>
+      <c r="G39" s="223"/>
+      <c r="H39" s="215"/>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="217">
+        <v>32</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="219">
+        <v>3000</v>
+      </c>
+      <c r="E40" s="227">
+        <v>851</v>
+      </c>
+      <c r="F40" s="220"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="215"/>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="217">
+        <v>33</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="219">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="227">
+        <v>1028</v>
+      </c>
+      <c r="F41" s="220"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="215"/>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="217">
+        <v>34</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="219">
+        <v>24000</v>
+      </c>
+      <c r="E42" s="227">
+        <v>1149</v>
+      </c>
+      <c r="F42" s="220"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="215"/>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="217">
+        <v>35</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="219">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="227">
+        <v>987</v>
+      </c>
+      <c r="F43" s="220"/>
+      <c r="G43" s="223"/>
+      <c r="H43" s="215"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="217">
+        <v>36</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="219">
+        <v>4000</v>
+      </c>
+      <c r="E44" s="227">
+        <v>1022</v>
+      </c>
+      <c r="F44" s="220"/>
+      <c r="G44" s="223"/>
+      <c r="H44" s="215"/>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="217">
+        <v>37</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="219">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="227">
+        <v>160</v>
+      </c>
+      <c r="F45" s="220"/>
+      <c r="G45" s="223"/>
+      <c r="H45" s="215"/>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="217">
+        <v>38</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="227">
+        <v>982</v>
+      </c>
+      <c r="F46" s="220"/>
+      <c r="G46" s="223"/>
+      <c r="H46" s="215"/>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="217">
+        <v>39</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="227">
+        <v>6</v>
+      </c>
+      <c r="F47" s="220"/>
+      <c r="G47" s="223"/>
+      <c r="H47" s="215"/>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="217">
+        <v>40</v>
+      </c>
+      <c r="B48" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="224">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="227">
+        <v>0</v>
+      </c>
+      <c r="F48" s="220"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="215"/>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="217">
+        <v>41</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="225"/>
+      <c r="E49" s="227">
+        <v>283</v>
+      </c>
+      <c r="F49" s="220"/>
+      <c r="G49" s="223"/>
+      <c r="H49" s="215"/>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="217">
+        <v>42</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="227">
+        <v>1001</v>
+      </c>
+      <c r="F50" s="220"/>
+      <c r="G50" s="223"/>
+      <c r="H50" s="215"/>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="217">
+        <v>43</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="227">
+        <v>186</v>
+      </c>
+      <c r="F51" s="220"/>
+      <c r="G51" s="223"/>
+      <c r="H51" s="215"/>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="217">
+        <v>44</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="227">
+        <v>1506</v>
+      </c>
+      <c r="F52" s="220"/>
+      <c r="G52" s="223"/>
+      <c r="H52" s="215"/>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="217">
+        <v>45</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="227">
+        <v>235</v>
+      </c>
+      <c r="F53" s="220"/>
+      <c r="G53" s="223"/>
+      <c r="H53" s="80"/>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="217">
+        <v>46</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="227">
+        <v>69</v>
+      </c>
+      <c r="F54" s="220"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="215"/>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="217">
+        <v>47</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E55" s="227"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="223"/>
+      <c r="H55" s="215"/>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="217">
+        <v>48</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E56" s="227">
+        <v>498</v>
+      </c>
+      <c r="F56" s="220"/>
+      <c r="G56" s="223"/>
+      <c r="H56" s="215"/>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="217">
+        <v>49</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="227">
+        <v>983</v>
+      </c>
+      <c r="F57" s="220"/>
+      <c r="G57" s="223"/>
+      <c r="H57" s="215"/>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="217">
+        <v>50</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="227">
+        <v>701</v>
+      </c>
+      <c r="F58" s="220"/>
+      <c r="G58" s="223"/>
+      <c r="H58" s="215"/>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="217">
+        <v>51</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="227">
+        <v>7</v>
+      </c>
+      <c r="F59" s="220"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="215"/>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="217">
+        <v>52</v>
+      </c>
+      <c r="B60" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="227">
+        <v>0</v>
+      </c>
+      <c r="F60" s="220"/>
+      <c r="G60" s="223"/>
+      <c r="H60" s="215"/>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="217">
+        <v>53</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="227">
+        <v>0</v>
+      </c>
+      <c r="F61" s="220"/>
+      <c r="G61" s="223"/>
+      <c r="H61" s="215"/>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="217">
+        <v>54</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="219">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="227">
+        <v>0</v>
+      </c>
+      <c r="F62" s="220"/>
+      <c r="G62" s="223"/>
+      <c r="H62" s="215"/>
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="217">
+        <v>55</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E63" s="227">
+        <v>61</v>
+      </c>
+      <c r="F63" s="220"/>
+      <c r="G63" s="223"/>
+      <c r="H63" s="215"/>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="217">
+        <v>56</v>
+      </c>
+      <c r="B64" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E64" s="227">
+        <v>7</v>
+      </c>
+      <c r="F64" s="220"/>
+      <c r="G64" s="223"/>
+      <c r="H64" s="215"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="217">
+        <v>57</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E65" s="227">
+        <v>2</v>
+      </c>
+      <c r="F65" s="220"/>
+      <c r="G65" s="223"/>
+      <c r="H65" s="215"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="217">
+        <v>58</v>
+      </c>
+      <c r="B66" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="227"/>
+      <c r="F66" s="220"/>
+      <c r="G66" s="223"/>
+      <c r="H66" s="215"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="217">
+        <v>59</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E67" s="227"/>
+      <c r="F67" s="220"/>
+      <c r="G67" s="223"/>
+      <c r="H67" s="215"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="217">
+        <v>60</v>
+      </c>
+      <c r="B68" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="227"/>
+      <c r="F68" s="220"/>
+      <c r="G68" s="223"/>
+      <c r="H68" s="215"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="217">
+        <v>61</v>
+      </c>
+      <c r="B69" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E69" s="227"/>
+      <c r="F69" s="220"/>
+      <c r="G69" s="223"/>
+      <c r="H69" s="215"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="217">
+        <v>62</v>
+      </c>
+      <c r="B70" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="219">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="227"/>
+      <c r="F70" s="220"/>
+      <c r="G70" s="223"/>
+      <c r="H70" s="215"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="217">
+        <v>63</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="226">
+        <v>2000</v>
+      </c>
+      <c r="E71" s="227"/>
+      <c r="F71" s="220"/>
+      <c r="G71" s="223"/>
+      <c r="H71" s="215"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="84"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="74"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="65"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="74"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="60"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="130"/>
+      <c r="C75" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="130"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="132"/>
+      <c r="H75" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="220">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="97">
-        <v>476</v>
-      </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68">
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="97">
-        <v>932</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="78"/>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68">
-        <v>7</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="97">
-        <v>255</v>
-      </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68">
-        <v>8</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="220">
-        <v>27000</v>
-      </c>
-      <c r="E16" s="97">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="78"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68">
-        <v>9</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="220">
-        <v>6000</v>
-      </c>
-      <c r="E17" s="97">
-        <v>117</v>
-      </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="78"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68">
-        <v>10</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="97">
-        <v>0</v>
-      </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68">
-        <v>11</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="220">
-        <v>8000</v>
-      </c>
-      <c r="E19" s="97">
-        <v>473</v>
-      </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68">
-        <v>12</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="220">
-        <v>4000</v>
-      </c>
-      <c r="E20" s="97">
-        <v>1469</v>
-      </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="78"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68">
-        <v>13</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="220">
-        <v>3000</v>
-      </c>
-      <c r="E21" s="97">
-        <v>0</v>
-      </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68">
-        <v>14</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="97">
-        <v>3</v>
-      </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="78"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68">
-        <v>15</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="97">
-        <v>499</v>
-      </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68">
-        <v>16</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="97">
-        <v>976</v>
-      </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="78"/>
-    </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68">
-        <v>17</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="97">
-        <v>1018</v>
-      </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68">
-        <v>18</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="97">
-        <v>329</v>
-      </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="78"/>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68">
-        <v>19</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="97">
-        <v>302</v>
-      </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="78"/>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68">
-        <v>20</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="97">
-        <v>1000</v>
-      </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68">
-        <v>21</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="97">
-        <v>0</v>
-      </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="78"/>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68">
-        <v>22</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="97">
-        <v>0</v>
-      </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68">
-        <v>23</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="220">
-        <v>3000</v>
-      </c>
-      <c r="E31" s="97">
-        <v>0</v>
-      </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="78"/>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68">
-        <v>24</v>
-      </c>
-      <c r="B32" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="220">
-        <v>5000</v>
-      </c>
-      <c r="E32" s="97">
-        <v>447</v>
-      </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="78"/>
-    </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68">
-        <v>25</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="220">
-        <v>2000</v>
-      </c>
-      <c r="E33" s="97">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="78"/>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68">
-        <v>26</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="220">
-        <v>3000</v>
-      </c>
-      <c r="E34" s="97">
-        <v>78</v>
-      </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="78"/>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68">
-        <v>27</v>
-      </c>
-      <c r="B35" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="97">
-        <v>925</v>
-      </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="78"/>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68">
-        <v>28</v>
-      </c>
-      <c r="B36" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="220">
-        <v>3000</v>
-      </c>
-      <c r="E36" s="97">
-        <v>484</v>
-      </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="78"/>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68">
-        <v>29</v>
-      </c>
-      <c r="B37" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="220">
-        <v>3000</v>
-      </c>
-      <c r="E37" s="97">
-        <v>2000</v>
-      </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="78"/>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68">
-        <v>30</v>
-      </c>
-      <c r="B38" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="220">
-        <v>6000</v>
-      </c>
-      <c r="E38" s="97">
-        <v>212</v>
-      </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="78"/>
-    </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68">
-        <v>31</v>
-      </c>
-      <c r="B39" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="220">
-        <v>8000</v>
-      </c>
-      <c r="E39" s="97">
-        <v>2000</v>
-      </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="78"/>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68">
-        <v>32</v>
-      </c>
-      <c r="B40" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="220">
-        <v>3000</v>
-      </c>
-      <c r="E40" s="97">
-        <v>835</v>
-      </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="78"/>
-    </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68">
-        <v>33</v>
-      </c>
-      <c r="B41" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="220">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="97">
-        <v>1015</v>
-      </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="78"/>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68">
-        <v>34</v>
-      </c>
-      <c r="B42" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="220">
-        <v>24000</v>
-      </c>
-      <c r="E42" s="97">
-        <v>1000</v>
-      </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="78"/>
-    </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68">
-        <v>35</v>
-      </c>
-      <c r="B43" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="220">
-        <v>2000</v>
-      </c>
-      <c r="E43" s="97">
-        <v>973</v>
-      </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="78"/>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68">
-        <v>36</v>
-      </c>
-      <c r="B44" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="220">
-        <v>4000</v>
-      </c>
-      <c r="E44" s="97">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="86"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="78"/>
-    </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68">
-        <v>37</v>
-      </c>
-      <c r="B45" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="220">
-        <v>3000</v>
-      </c>
-      <c r="E45" s="97">
-        <v>140</v>
-      </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="78"/>
-    </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68">
-        <v>38</v>
-      </c>
-      <c r="B46" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E46" s="97">
-        <v>979</v>
-      </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="78"/>
-    </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68">
-        <v>39</v>
-      </c>
-      <c r="B47" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="97">
-        <v>0</v>
-      </c>
-      <c r="F47" s="86"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="78"/>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68">
-        <v>40</v>
-      </c>
-      <c r="B48" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="221">
-        <v>1000</v>
-      </c>
-      <c r="E48" s="97">
-        <v>332</v>
-      </c>
-      <c r="F48" s="86"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="78"/>
-    </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68">
-        <v>41</v>
-      </c>
-      <c r="B49" s="91" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="97">
-        <v>0</v>
-      </c>
-      <c r="F49" s="86"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="78"/>
-    </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68">
-        <v>42</v>
-      </c>
-      <c r="B50" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E50" s="97">
-        <v>995</v>
-      </c>
-      <c r="F50" s="86"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="78"/>
-    </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68">
-        <v>43</v>
-      </c>
-      <c r="B51" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E51" s="97">
-        <v>192</v>
-      </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="78"/>
-    </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68">
-        <v>44</v>
-      </c>
-      <c r="B52" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E52" s="97">
-        <v>1500</v>
-      </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="78"/>
-    </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="68">
-        <v>45</v>
-      </c>
-      <c r="B53" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E53" s="97">
-        <v>230</v>
-      </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="91"/>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="68">
-        <v>46</v>
-      </c>
-      <c r="B54" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E54" s="97">
-        <v>63</v>
-      </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="78"/>
-    </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="68">
-        <v>47</v>
-      </c>
-      <c r="B55" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E55" s="97">
-        <v>-14</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="78"/>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68">
-        <v>48</v>
-      </c>
-      <c r="B56" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E56" s="97">
-        <v>493</v>
-      </c>
-      <c r="F56" s="86"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="78"/>
-    </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="68">
-        <v>49</v>
-      </c>
-      <c r="B57" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E57" s="97">
-        <v>976</v>
-      </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="78"/>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="68">
-        <v>50</v>
-      </c>
-      <c r="B58" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E58" s="97">
-        <v>696</v>
-      </c>
-      <c r="F58" s="86"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="78"/>
-    </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="68">
-        <v>51</v>
-      </c>
-      <c r="B59" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E59" s="97">
-        <v>0</v>
-      </c>
-      <c r="F59" s="86"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="78"/>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68">
-        <v>52</v>
-      </c>
-      <c r="B60" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E60" s="97">
-        <v>0</v>
-      </c>
-      <c r="F60" s="86"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="78"/>
-    </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="68">
-        <v>53</v>
-      </c>
-      <c r="B61" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E61" s="97">
-        <v>0</v>
-      </c>
-      <c r="F61" s="86"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="78"/>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68">
-        <v>54</v>
-      </c>
-      <c r="B62" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="220">
-        <v>2000</v>
-      </c>
-      <c r="E62" s="97">
-        <v>0</v>
-      </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="78"/>
-    </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="68">
-        <v>55</v>
-      </c>
-      <c r="B63" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E63" s="97">
-        <v>61</v>
-      </c>
-      <c r="F63" s="86"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="78"/>
-    </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="68">
-        <v>56</v>
-      </c>
-      <c r="B64" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E64" s="97">
-        <v>0</v>
-      </c>
-      <c r="F64" s="86"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="78"/>
-    </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="68">
-        <v>57</v>
-      </c>
-      <c r="B65" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E65" s="97">
-        <v>0</v>
-      </c>
-      <c r="F65" s="86"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="78"/>
-    </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68">
-        <v>58</v>
-      </c>
-      <c r="B66" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E66" s="97">
-        <v>13</v>
-      </c>
-      <c r="F66" s="86"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="78"/>
-    </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68">
-        <v>59</v>
-      </c>
-      <c r="B67" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E67" s="97">
-        <v>0</v>
-      </c>
-      <c r="F67" s="86"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="78"/>
-    </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="68">
-        <v>60</v>
-      </c>
-      <c r="B68" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E68" s="97">
-        <v>0</v>
-      </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="78"/>
-    </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="68">
-        <v>61</v>
-      </c>
-      <c r="B69" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E69" s="97">
-        <v>0</v>
-      </c>
-      <c r="F69" s="86"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="78"/>
-    </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="68">
-        <v>62</v>
-      </c>
-      <c r="B70" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="220">
-        <v>1000</v>
-      </c>
-      <c r="E70" s="97">
-        <v>0</v>
-      </c>
-      <c r="F70" s="86"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="78"/>
-    </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="68">
-        <v>63</v>
-      </c>
-      <c r="B71" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="90">
-        <v>2000</v>
-      </c>
-      <c r="E71" s="97">
-        <v>0</v>
-      </c>
-      <c r="F71" s="86"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="78"/>
-    </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="223"/>
-      <c r="B72" s="146"/>
-      <c r="C72" s="146"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="147"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="146"/>
-      <c r="H72" s="79"/>
-    </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="67"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="79"/>
-    </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="144"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-    </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="134" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="134"/>
-      <c r="C75" s="134" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="134"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" s="136"/>
-      <c r="H75" s="83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="135" t="s">
+      <c r="B76" s="131"/>
+      <c r="C76" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="135"/>
-      <c r="C76" s="135" t="s">
+      <c r="D76" s="131"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="135"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="135" t="s">
+      <c r="G76" s="131"/>
+      <c r="H76" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="135"/>
-      <c r="H76" s="82" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="77" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="62"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="61"/>
     </row>
     <row r="78" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="62"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="61"/>
     </row>
     <row r="79" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="62"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="61"/>
     </row>
     <row r="80" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="65"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="135"/>
-      <c r="H80" s="135"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="131"/>
+      <c r="H80" s="131"/>
     </row>
     <row r="81" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="62"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="61"/>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="135" t="s">
+      <c r="A82" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="135"/>
-      <c r="C82" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" s="135"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="137" t="s">
+      <c r="B82" s="131"/>
+      <c r="C82" s="131" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="131"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="137"/>
-      <c r="H82" s="82" t="s">
+      <c r="G82" s="133"/>
+      <c r="H82" s="77" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F84" s="133"/>
-      <c r="G84" s="133"/>
-      <c r="H84" s="133"/>
+      <c r="F84" s="129"/>
+      <c r="G84" s="129"/>
+      <c r="H84" s="129"/>
     </row>
     <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C88" s="132" t="s">
+      <c r="C88" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
-      <c r="G88" s="132"/>
-      <c r="H88" s="132"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
     </row>
     <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="H95" s="84" t="s">
+      <c r="H95" s="79" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D48:D49"/>
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="F84:H84"/>
     <mergeCell ref="A75:B75"/>
@@ -5099,9 +5130,19 @@
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D48:D49"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="7" man="1"/>
   </rowBreaks>
@@ -5131,154 +5172,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="153"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="150" t="s">
+      <c r="A1" s="140"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="105" t="s">
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="105"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="105" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="105"/>
+      <c r="H2" s="113"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="105" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="113"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="92" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="111"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
+      <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="136"/>
+      <c r="D7" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="69">
+      <c r="E7" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="66">
         <v>1</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="66">
         <v>1</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165" t="s">
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="165"/>
+      <c r="H9" s="134"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164" t="s">
+      <c r="B10" s="151"/>
+      <c r="C10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="164"/>
+      <c r="H10" s="151"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -5291,34 +5332,27 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162" t="s">
+      <c r="B15" s="149"/>
+      <c r="C15" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162" t="s">
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="162"/>
+      <c r="H15" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -5335,6 +5369,13 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -5364,42 +5405,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="171" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="157"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="170"/>
+      <c r="B5" s="154"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -5638,32 +5679,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="180"/>
+      <c r="F37" s="164"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="168" t="s">
+      <c r="B38" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="168"/>
+      <c r="C38" s="152"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="168" t="s">
+      <c r="E38" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="168"/>
+      <c r="F38" s="152"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="169" t="s">
+      <c r="B39" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="169"/>
+      <c r="C39" s="153"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="169" t="s">
+      <c r="E39" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="169"/>
+      <c r="F39" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5708,78 +5749,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="185" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186" t="s">
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="187"/>
-      <c r="L2" s="188"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="180"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="186" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="187"/>
-      <c r="L3" s="188"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="180"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="187"/>
-      <c r="L4" s="188"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="180"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184" t="s">
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -5871,58 +5912,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="196" t="s">
+      <c r="A21" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="182" t="s">
+      <c r="C21" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="182" t="s">
+      <c r="D21" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="181" t="s">
+      <c r="E21" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="181" t="s">
+      <c r="F21" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181" t="s">
+      <c r="G21" s="169"/>
+      <c r="H21" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="181" t="s">
+      <c r="I21" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="181" t="s">
+      <c r="J21" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="191" t="s">
+      <c r="K21" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="189" t="s">
+      <c r="L21" s="165" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="196"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="181"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="190"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="166"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -5967,45 +6008,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="195" t="s">
+      <c r="D26" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="168" t="s">
+      <c r="A27" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168" t="s">
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="168"/>
-      <c r="H27" s="168" t="s">
+      <c r="F27" s="152"/>
+      <c r="H27" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169" t="s">
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="169"/>
-      <c r="I28" s="169" t="s">
+      <c r="F28" s="153"/>
+      <c r="I28" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="169"/>
+      <c r="J28" s="153"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,74 +6081,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="194" t="s">
+      <c r="B32" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="171"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="193" t="s">
+      <c r="A34" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="193"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="193"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="193" t="s">
+      <c r="A35" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="193"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6115,6 +6156,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -6131,22 +6188,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -6179,62 +6220,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="209" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="186" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="186" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="188"/>
+      <c r="K3" s="180"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="186" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="188"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6248,12 +6289,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="211" t="s">
+      <c r="H6" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -6283,10 +6324,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="205" t="s">
+      <c r="J7" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="206"/>
+      <c r="K7" s="183"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -6300,8 +6341,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="199"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="191"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -6315,8 +6356,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="191"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -6330,8 +6371,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="193"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -6345,8 +6386,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="193"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -6360,8 +6401,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="193"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -6375,14 +6416,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="207" t="s">
+      <c r="A14" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="208"/>
+      <c r="B14" s="185"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -6390,44 +6431,35 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="203"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="197" t="s">
+      <c r="E16" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197" t="s">
+      <c r="F16" s="189"/>
+      <c r="G16" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197" t="s">
+      <c r="H16" s="189"/>
+      <c r="I16" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -6439,6 +6471,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -6478,48 +6519,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="186" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="188"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="186" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="188"/>
+      <c r="J3" s="180"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="186" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="188"/>
+      <c r="J4" s="180"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6565,11 +6606,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -6579,174 +6620,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="212" t="s">
+      <c r="H8" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="212"/>
-      <c r="J8" s="213"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="217"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="196"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="217"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="217"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="196"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="217"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="196"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="217"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="196"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="217"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="196"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="217"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="196"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="217"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="217"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="217"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="219"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6761,42 +6802,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120" t="s">
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6806,9 +6847,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6818,9 +6859,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6830,9 +6871,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -6840,6 +6881,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -6847,38 +6920,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000LE-4G_041023.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang10/XKSX_LK_1000LE-4G_041023.xlsx
@@ -1478,67 +1478,33 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,38 +1534,128 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1607,40 +1663,43 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1679,6 +1738,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1718,6 +1786,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1728,9 +1820,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,26 +1834,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1790,26 +1879,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1818,89 +1901,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1943,7 +1943,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1995,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2044,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2096,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2145,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2295,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2393,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2437,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,57 +2852,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="113" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="113"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="113"/>
+      <c r="M3" s="103"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="113" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2929,29 +2929,29 @@
       <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="70" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97" t="s">
+      <c r="H8" s="105"/>
+      <c r="I8" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97" t="s">
+      <c r="J8" s="105"/>
+      <c r="K8" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="97"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="70" t="s">
         <v>4</v>
       </c>
@@ -2960,86 +2960,86 @@
       <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="69">
         <v>985</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="93" t="s">
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="93"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="69">
         <v>985</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="93" t="s">
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="93"/>
+      <c r="L10" s="110"/>
       <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71">
         <v>3</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="69" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="69">
         <v>985</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93" t="s">
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="93"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71">
         <v>4</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="69" t="s">
         <v>93</v>
       </c>
@@ -3047,58 +3047,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93" t="s">
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="93"/>
+      <c r="L12" s="110"/>
       <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="94" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="94" t="s">
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="119"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="85" t="s">
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="85" t="s">
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3161,25 +3161,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="88" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="88" t="s">
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3192,12 +3192,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3214,19 +3221,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3260,51 +3260,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="113" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="113"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="113"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="113" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="113"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3331,23 +3331,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="101" t="s">
+      <c r="G8" s="112"/>
+      <c r="H8" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="102"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="112"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3356,46 +3356,46 @@
       <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="126">
         <v>6</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="116" t="s">
+      <c r="G9" s="128"/>
+      <c r="H9" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>2</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="126">
         <v>4</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="116" t="s">
+      <c r="G10" s="128"/>
+      <c r="H10" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
       <c r="K10" s="73" t="s">
         <v>117</v>
       </c>
@@ -3404,65 +3404,65 @@
       <c r="A11" s="73">
         <v>3</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="126">
         <v>2</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="116" t="s">
+      <c r="G11" s="128"/>
+      <c r="H11" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="73" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="94" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="94" t="s">
+      <c r="G13" s="119"/>
+      <c r="H13" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="85" t="s">
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="85" t="s">
+      <c r="G14" s="122"/>
+      <c r="H14" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="122"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3517,23 +3517,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="88" t="s">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88" t="s">
+      <c r="G19" s="125"/>
+      <c r="H19" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="125"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3546,6 +3546,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3555,24 +3573,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3586,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3604,1368 +3604,1368 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="205" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="207"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="207" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="207"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="204"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="207" t="s">
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="207"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="213" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="213"/>
-      <c r="F6" s="214" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="145" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
     </row>
     <row r="7" spans="1:19" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="215" t="s">
+      <c r="C8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="216" t="s">
+      <c r="D8" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="216" t="s">
+      <c r="E8" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="215" t="s">
+      <c r="F8" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="215" t="s">
+      <c r="G8" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="215" t="s">
+      <c r="H8" s="87" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="217">
+      <c r="A9" s="89">
         <v>1</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="219">
+      <c r="C9" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="91">
         <v>1000</v>
       </c>
-      <c r="E9" s="227">
+      <c r="E9" s="95">
         <v>3284</v>
       </c>
-      <c r="F9" s="220"/>
-      <c r="G9" s="221" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="217" t="s">
+      <c r="H9" s="89" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="217">
+      <c r="A10" s="89">
         <v>2</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="219">
+      <c r="C10" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="91">
         <v>7000</v>
       </c>
-      <c r="E10" s="227">
+      <c r="E10" s="95">
         <v>18</v>
       </c>
-      <c r="F10" s="220"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="217"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="217">
+      <c r="A11" s="89">
         <v>3</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="219">
+      <c r="C11" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="91">
         <v>1000</v>
       </c>
-      <c r="E11" s="227">
+      <c r="E11" s="95">
         <v>1062</v>
       </c>
-      <c r="F11" s="220"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="215"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="87"/>
       <c r="S11" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="217">
+      <c r="A12" s="89">
         <v>4</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="219">
+      <c r="C12" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="91">
         <v>4000</v>
       </c>
-      <c r="E12" s="227">
+      <c r="E12" s="95">
         <v>157</v>
       </c>
-      <c r="F12" s="220"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="215"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="87"/>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="217">
+      <c r="A13" s="89">
         <v>5</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="219">
+      <c r="C13" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="91">
         <v>2000</v>
       </c>
-      <c r="E13" s="227">
+      <c r="E13" s="95">
         <v>521</v>
       </c>
-      <c r="F13" s="220"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="215"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="87"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="217">
+      <c r="A14" s="89">
         <v>6</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="219">
+      <c r="C14" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="91">
         <v>1000</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="95">
         <v>936</v>
       </c>
-      <c r="F14" s="220"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="215"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="87"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="217">
+      <c r="A15" s="89">
         <v>7</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="219">
+      <c r="C15" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="91">
         <v>1000</v>
       </c>
-      <c r="E15" s="227">
+      <c r="E15" s="95">
         <v>336</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="215"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="87"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="217">
+      <c r="A16" s="89">
         <v>8</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="219">
+      <c r="C16" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="91">
         <v>27000</v>
       </c>
-      <c r="E16" s="227">
+      <c r="E16" s="95">
         <v>1184</v>
       </c>
-      <c r="F16" s="220"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="215"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="217">
+      <c r="A17" s="89">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="219">
+      <c r="C17" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="91">
         <v>6000</v>
       </c>
-      <c r="E17" s="227">
+      <c r="E17" s="95">
         <v>141</v>
       </c>
-      <c r="F17" s="220"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="215"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="87"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="217">
+      <c r="A18" s="89">
         <v>10</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="219">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="227">
+      <c r="C18" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="91">
+        <v>993</v>
+      </c>
+      <c r="E18" s="95">
         <v>6</v>
       </c>
-      <c r="F18" s="220"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="215"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="217">
+      <c r="A19" s="89">
         <v>11</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="219">
+      <c r="C19" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="91">
         <v>8000</v>
       </c>
-      <c r="E19" s="227">
+      <c r="E19" s="95">
         <v>3078</v>
       </c>
-      <c r="F19" s="220"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="215"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="217">
+      <c r="A20" s="89">
         <v>12</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="219">
+      <c r="C20" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="91">
         <v>4000</v>
       </c>
-      <c r="E20" s="227">
+      <c r="E20" s="95">
         <v>1465</v>
       </c>
-      <c r="F20" s="220"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="215"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="87"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="217">
+      <c r="A21" s="89">
         <v>13</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="219">
+      <c r="C21" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="91">
         <v>3000</v>
       </c>
-      <c r="E21" s="227">
+      <c r="E21" s="95">
         <v>18</v>
       </c>
-      <c r="F21" s="220"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="215"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="87"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="217">
+      <c r="A22" s="89">
         <v>14</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="219">
+      <c r="C22" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="91">
         <v>1000</v>
       </c>
-      <c r="E22" s="227">
+      <c r="E22" s="95">
         <v>0</v>
       </c>
-      <c r="F22" s="220"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="215"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="87"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="217">
+      <c r="A23" s="89">
         <v>15</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="219">
+      <c r="C23" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="91">
         <v>1000</v>
       </c>
-      <c r="E23" s="227">
+      <c r="E23" s="95">
         <v>486</v>
       </c>
-      <c r="F23" s="220"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="215"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="87"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="217">
+      <c r="A24" s="89">
         <v>16</v>
       </c>
       <c r="B24" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="219">
+      <c r="C24" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="91">
         <v>1000</v>
       </c>
-      <c r="E24" s="227">
+      <c r="E24" s="95">
         <v>976</v>
       </c>
-      <c r="F24" s="220"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="215"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="87"/>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="217">
+      <c r="A25" s="89">
         <v>17</v>
       </c>
       <c r="B25" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="219">
+      <c r="C25" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="91">
         <v>1000</v>
       </c>
-      <c r="E25" s="227">
+      <c r="E25" s="95">
         <v>1014</v>
       </c>
-      <c r="F25" s="220"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="215"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="217">
+      <c r="A26" s="89">
         <v>18</v>
       </c>
       <c r="B26" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="219">
+      <c r="C26" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="91">
         <v>1000</v>
       </c>
-      <c r="E26" s="227">
+      <c r="E26" s="95">
         <v>338</v>
       </c>
-      <c r="F26" s="220"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="215"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="87"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="217">
+      <c r="A27" s="89">
         <v>19</v>
       </c>
       <c r="B27" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="219">
+      <c r="C27" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="91">
         <v>1000</v>
       </c>
-      <c r="E27" s="227">
+      <c r="E27" s="95">
         <v>299</v>
       </c>
-      <c r="F27" s="220"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="215"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="87"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="217">
+      <c r="A28" s="89">
         <v>20</v>
       </c>
       <c r="B28" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="219">
+      <c r="C28" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="91">
         <v>1000</v>
       </c>
-      <c r="E28" s="227">
+      <c r="E28" s="95">
         <v>994</v>
       </c>
-      <c r="F28" s="220"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="215"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="87"/>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="217">
+      <c r="A29" s="89">
         <v>21</v>
       </c>
       <c r="B29" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="219">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="227">
+      <c r="C29" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="91">
+        <v>993</v>
+      </c>
+      <c r="E29" s="95">
         <v>7</v>
       </c>
-      <c r="F29" s="220"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="215"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="87"/>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="217">
+      <c r="A30" s="89">
         <v>22</v>
       </c>
       <c r="B30" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="219">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="227">
+      <c r="C30" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="91">
+        <v>993</v>
+      </c>
+      <c r="E30" s="95">
         <v>6</v>
       </c>
-      <c r="F30" s="220"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="215"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="87"/>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="217">
+      <c r="A31" s="89">
         <v>23</v>
       </c>
       <c r="B31" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="219">
+      <c r="C31" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="91">
         <v>3000</v>
       </c>
-      <c r="E31" s="227">
+      <c r="E31" s="95">
         <v>19</v>
       </c>
-      <c r="F31" s="220"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="215"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="87"/>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="217">
+      <c r="A32" s="89">
         <v>24</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="219">
+      <c r="C32" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="91">
         <v>5000</v>
       </c>
-      <c r="E32" s="227">
+      <c r="E32" s="95">
         <v>468</v>
       </c>
-      <c r="F32" s="220"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="215"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="87"/>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="217">
+      <c r="A33" s="89">
         <v>25</v>
       </c>
       <c r="B33" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="219">
+      <c r="C33" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="91">
         <v>2000</v>
       </c>
-      <c r="E33" s="227">
+      <c r="E33" s="95">
         <v>1010</v>
       </c>
-      <c r="F33" s="220"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="215"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="87"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="217">
+      <c r="A34" s="89">
         <v>26</v>
       </c>
       <c r="B34" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="219">
+      <c r="C34" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="91">
         <v>3000</v>
       </c>
-      <c r="E34" s="227">
+      <c r="E34" s="95">
         <v>87</v>
       </c>
-      <c r="F34" s="220"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="215"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="87"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="217">
+      <c r="A35" s="89">
         <v>27</v>
       </c>
       <c r="B35" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="219">
+      <c r="C35" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="91">
         <v>1000</v>
       </c>
-      <c r="E35" s="227">
+      <c r="E35" s="95">
         <v>935</v>
       </c>
-      <c r="F35" s="220"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="215"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="87"/>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="217">
+      <c r="A36" s="89">
         <v>28</v>
       </c>
       <c r="B36" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="219">
+      <c r="C36" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="91">
         <v>3000</v>
       </c>
-      <c r="E36" s="227">
+      <c r="E36" s="95">
         <v>508</v>
       </c>
-      <c r="F36" s="220"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="215"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="87"/>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="217">
+      <c r="A37" s="89">
         <v>29</v>
       </c>
       <c r="B37" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="219">
+      <c r="C37" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="91">
         <v>3000</v>
       </c>
-      <c r="E37" s="227">
+      <c r="E37" s="95">
         <v>1999</v>
       </c>
-      <c r="F37" s="220"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="215"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="87"/>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="217">
+      <c r="A38" s="89">
         <v>30</v>
       </c>
       <c r="B38" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="219">
+      <c r="C38" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="91">
         <v>6000</v>
       </c>
-      <c r="E38" s="227">
+      <c r="E38" s="95">
         <v>248</v>
       </c>
-      <c r="F38" s="220"/>
-      <c r="G38" s="223"/>
-      <c r="H38" s="215"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="87"/>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="217">
+      <c r="A39" s="89">
         <v>31</v>
       </c>
       <c r="B39" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="219">
+      <c r="C39" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="91">
         <v>8000</v>
       </c>
-      <c r="E39" s="227">
+      <c r="E39" s="95">
         <v>2046</v>
       </c>
-      <c r="F39" s="220"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="215"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="87"/>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="217">
+      <c r="A40" s="89">
         <v>32</v>
       </c>
       <c r="B40" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="219">
+      <c r="C40" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="91">
         <v>3000</v>
       </c>
-      <c r="E40" s="227">
+      <c r="E40" s="95">
         <v>851</v>
       </c>
-      <c r="F40" s="220"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="215"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="87"/>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="217">
+      <c r="A41" s="89">
         <v>33</v>
       </c>
       <c r="B41" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="219">
+      <c r="C41" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="91">
         <v>2000</v>
       </c>
-      <c r="E41" s="227">
+      <c r="E41" s="95">
         <v>1028</v>
       </c>
-      <c r="F41" s="220"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="215"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="87"/>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="217">
+      <c r="A42" s="89">
         <v>34</v>
       </c>
       <c r="B42" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="219">
+      <c r="C42" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="91">
         <v>24000</v>
       </c>
-      <c r="E42" s="227">
+      <c r="E42" s="95">
         <v>1149</v>
       </c>
-      <c r="F42" s="220"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="215"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="87"/>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="217">
+      <c r="A43" s="89">
         <v>35</v>
       </c>
       <c r="B43" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="219">
+      <c r="C43" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="91">
         <v>2000</v>
       </c>
-      <c r="E43" s="227">
+      <c r="E43" s="95">
         <v>987</v>
       </c>
-      <c r="F43" s="220"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="215"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="87"/>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="217">
+      <c r="A44" s="89">
         <v>36</v>
       </c>
       <c r="B44" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="219">
+      <c r="C44" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="91">
         <v>4000</v>
       </c>
-      <c r="E44" s="227">
+      <c r="E44" s="95">
         <v>1022</v>
       </c>
-      <c r="F44" s="220"/>
-      <c r="G44" s="223"/>
-      <c r="H44" s="215"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="87"/>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="217">
+      <c r="A45" s="89">
         <v>37</v>
       </c>
       <c r="B45" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="219">
+      <c r="C45" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="91">
         <v>3000</v>
       </c>
-      <c r="E45" s="227">
+      <c r="E45" s="95">
         <v>160</v>
       </c>
-      <c r="F45" s="220"/>
-      <c r="G45" s="223"/>
-      <c r="H45" s="215"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="87"/>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="217">
+      <c r="A46" s="89">
         <v>38</v>
       </c>
       <c r="B46" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="219">
+      <c r="C46" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="91">
         <v>1000</v>
       </c>
-      <c r="E46" s="227">
+      <c r="E46" s="95">
         <v>982</v>
       </c>
-      <c r="F46" s="220"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="215"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="87"/>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="217">
+      <c r="A47" s="89">
         <v>39</v>
       </c>
       <c r="B47" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="219">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="227">
+      <c r="C47" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="91">
+        <v>993</v>
+      </c>
+      <c r="E47" s="95">
         <v>6</v>
       </c>
-      <c r="F47" s="220"/>
-      <c r="G47" s="223"/>
-      <c r="H47" s="215"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="87"/>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="217">
+      <c r="A48" s="89">
         <v>40</v>
       </c>
       <c r="B48" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="224">
+      <c r="C48" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="150">
         <v>1000</v>
       </c>
-      <c r="E48" s="227">
+      <c r="E48" s="95">
         <v>0</v>
       </c>
-      <c r="F48" s="220"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="215"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="87"/>
     </row>
     <row r="49" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="217">
+      <c r="A49" s="89">
         <v>41</v>
       </c>
       <c r="B49" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="225"/>
-      <c r="E49" s="227">
+      <c r="C49" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="151"/>
+      <c r="E49" s="95">
         <v>283</v>
       </c>
-      <c r="F49" s="220"/>
-      <c r="G49" s="223"/>
-      <c r="H49" s="215"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="87"/>
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="217">
+      <c r="A50" s="89">
         <v>42</v>
       </c>
       <c r="B50" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="219">
+      <c r="C50" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="91">
         <v>1000</v>
       </c>
-      <c r="E50" s="227">
+      <c r="E50" s="95">
         <v>1001</v>
       </c>
-      <c r="F50" s="220"/>
-      <c r="G50" s="223"/>
-      <c r="H50" s="215"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="87"/>
     </row>
     <row r="51" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="217">
+      <c r="A51" s="89">
         <v>43</v>
       </c>
       <c r="B51" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="219">
+      <c r="C51" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="91">
         <v>1000</v>
       </c>
-      <c r="E51" s="227">
+      <c r="E51" s="95">
         <v>186</v>
       </c>
-      <c r="F51" s="220"/>
-      <c r="G51" s="223"/>
-      <c r="H51" s="215"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="87"/>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="217">
+      <c r="A52" s="89">
         <v>44</v>
       </c>
       <c r="B52" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="219">
+      <c r="C52" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="91">
         <v>1000</v>
       </c>
-      <c r="E52" s="227">
+      <c r="E52" s="95">
         <v>1506</v>
       </c>
-      <c r="F52" s="220"/>
-      <c r="G52" s="223"/>
-      <c r="H52" s="215"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="87"/>
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="217">
+      <c r="A53" s="89">
         <v>45</v>
       </c>
       <c r="B53" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="219">
+      <c r="C53" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="91">
         <v>1000</v>
       </c>
-      <c r="E53" s="227">
+      <c r="E53" s="95">
         <v>235</v>
       </c>
-      <c r="F53" s="220"/>
-      <c r="G53" s="223"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="93"/>
       <c r="H53" s="80"/>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="217">
+      <c r="A54" s="89">
         <v>46</v>
       </c>
       <c r="B54" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="219">
+      <c r="C54" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="91">
         <v>1000</v>
       </c>
-      <c r="E54" s="227">
+      <c r="E54" s="95">
         <v>69</v>
       </c>
-      <c r="F54" s="220"/>
-      <c r="G54" s="223"/>
-      <c r="H54" s="215"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="87"/>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="217">
+      <c r="A55" s="89">
         <v>47</v>
       </c>
       <c r="B55" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="219">
+      <c r="C55" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="91">
         <v>1000</v>
       </c>
-      <c r="E55" s="227"/>
-      <c r="F55" s="220"/>
-      <c r="G55" s="223"/>
-      <c r="H55" s="215"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="87"/>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="217">
+      <c r="A56" s="89">
         <v>48</v>
       </c>
       <c r="B56" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="219">
+      <c r="C56" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="91">
         <v>1000</v>
       </c>
-      <c r="E56" s="227">
+      <c r="E56" s="95">
         <v>498</v>
       </c>
-      <c r="F56" s="220"/>
-      <c r="G56" s="223"/>
-      <c r="H56" s="215"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="87"/>
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="217">
+      <c r="A57" s="89">
         <v>49</v>
       </c>
       <c r="B57" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="219">
+      <c r="C57" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="91">
         <v>1000</v>
       </c>
-      <c r="E57" s="227">
+      <c r="E57" s="95">
         <v>983</v>
       </c>
-      <c r="F57" s="220"/>
-      <c r="G57" s="223"/>
-      <c r="H57" s="215"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="87"/>
     </row>
     <row r="58" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="217">
+      <c r="A58" s="89">
         <v>50</v>
       </c>
       <c r="B58" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="219">
+      <c r="C58" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="91">
         <v>1000</v>
       </c>
-      <c r="E58" s="227">
+      <c r="E58" s="95">
         <v>701</v>
       </c>
-      <c r="F58" s="220"/>
-      <c r="G58" s="223"/>
-      <c r="H58" s="215"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="87"/>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="217">
+      <c r="A59" s="89">
         <v>51</v>
       </c>
       <c r="B59" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="219">
-        <v>1000</v>
-      </c>
-      <c r="E59" s="227">
+      <c r="C59" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="91">
+        <v>993</v>
+      </c>
+      <c r="E59" s="95">
         <v>7</v>
       </c>
-      <c r="F59" s="220"/>
-      <c r="G59" s="223"/>
-      <c r="H59" s="215"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="87"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="217">
+      <c r="A60" s="89">
         <v>52</v>
       </c>
       <c r="B60" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="219">
+      <c r="C60" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="91">
         <v>1000</v>
       </c>
-      <c r="E60" s="227">
+      <c r="E60" s="95">
         <v>0</v>
       </c>
-      <c r="F60" s="220"/>
-      <c r="G60" s="223"/>
-      <c r="H60" s="215"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="87"/>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="217">
+      <c r="A61" s="89">
         <v>53</v>
       </c>
       <c r="B61" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="219">
+      <c r="C61" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="91">
         <v>1000</v>
       </c>
-      <c r="E61" s="227">
+      <c r="E61" s="95">
         <v>0</v>
       </c>
-      <c r="F61" s="220"/>
-      <c r="G61" s="223"/>
-      <c r="H61" s="215"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="87"/>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="217">
+      <c r="A62" s="89">
         <v>54</v>
       </c>
       <c r="B62" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="219">
+      <c r="C62" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="91">
         <v>2000</v>
       </c>
-      <c r="E62" s="227">
+      <c r="E62" s="95">
         <v>0</v>
       </c>
-      <c r="F62" s="220"/>
-      <c r="G62" s="223"/>
-      <c r="H62" s="215"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="87"/>
     </row>
     <row r="63" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="217">
+      <c r="A63" s="89">
         <v>55</v>
       </c>
       <c r="B63" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="219">
+      <c r="C63" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="91">
         <v>1000</v>
       </c>
-      <c r="E63" s="227">
+      <c r="E63" s="95">
         <v>61</v>
       </c>
-      <c r="F63" s="220"/>
-      <c r="G63" s="223"/>
-      <c r="H63" s="215"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="87"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="217">
+      <c r="A64" s="89">
         <v>56</v>
       </c>
       <c r="B64" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C64" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="219">
-        <v>1000</v>
-      </c>
-      <c r="E64" s="227">
+      <c r="C64" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="91">
+        <v>993</v>
+      </c>
+      <c r="E64" s="95">
         <v>7</v>
       </c>
-      <c r="F64" s="220"/>
-      <c r="G64" s="223"/>
-      <c r="H64" s="215"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="87"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="217">
+      <c r="A65" s="89">
         <v>57</v>
       </c>
       <c r="B65" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="219">
+      <c r="C65" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="91">
         <v>1000</v>
       </c>
-      <c r="E65" s="227">
+      <c r="E65" s="95">
         <v>2</v>
       </c>
-      <c r="F65" s="220"/>
-      <c r="G65" s="223"/>
-      <c r="H65" s="215"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="87"/>
     </row>
     <row r="66" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="217">
+      <c r="A66" s="89">
         <v>58</v>
       </c>
       <c r="B66" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="219">
-        <v>1000</v>
-      </c>
-      <c r="E66" s="227"/>
-      <c r="F66" s="220"/>
-      <c r="G66" s="223"/>
-      <c r="H66" s="215"/>
+      <c r="C66" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="91">
+        <v>1013</v>
+      </c>
+      <c r="E66" s="95"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="87"/>
     </row>
     <row r="67" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="217">
+      <c r="A67" s="89">
         <v>59</v>
       </c>
       <c r="B67" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="219">
+      <c r="C67" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="91">
         <v>1000</v>
       </c>
-      <c r="E67" s="227"/>
-      <c r="F67" s="220"/>
-      <c r="G67" s="223"/>
-      <c r="H67" s="215"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="87"/>
     </row>
     <row r="68" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="217">
+      <c r="A68" s="89">
         <v>60</v>
       </c>
       <c r="B68" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="219">
+      <c r="C68" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="91">
         <v>1000</v>
       </c>
-      <c r="E68" s="227"/>
-      <c r="F68" s="220"/>
-      <c r="G68" s="223"/>
-      <c r="H68" s="215"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="87"/>
     </row>
     <row r="69" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="217">
+      <c r="A69" s="89">
         <v>61</v>
       </c>
       <c r="B69" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C69" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="219">
+      <c r="C69" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="91">
         <v>1000</v>
       </c>
-      <c r="E69" s="227"/>
-      <c r="F69" s="220"/>
-      <c r="G69" s="223"/>
-      <c r="H69" s="215"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="87"/>
     </row>
     <row r="70" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="217">
+      <c r="A70" s="89">
         <v>62</v>
       </c>
       <c r="B70" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="219">
+      <c r="C70" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="91">
         <v>1000</v>
       </c>
-      <c r="E70" s="227"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="223"/>
-      <c r="H70" s="215"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="87"/>
     </row>
     <row r="71" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="217">
+      <c r="A71" s="89">
         <v>63</v>
       </c>
       <c r="B71" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="226">
+      <c r="C71" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="94">
         <v>2000</v>
       </c>
-      <c r="E71" s="227"/>
-      <c r="F71" s="220"/>
-      <c r="G71" s="223"/>
-      <c r="H71" s="215"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="87"/>
     </row>
     <row r="72" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="84"/>
-      <c r="B72" s="126"/>
-      <c r="C72" s="126"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
+      <c r="B72" s="146"/>
+      <c r="C72" s="146"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="146"/>
       <c r="H72" s="74"/>
     </row>
     <row r="73" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4980,8 +4980,8 @@
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="60"/>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
+      <c r="B74" s="143"/>
+      <c r="C74" s="143"/>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
       <c r="F74" s="60"/>
@@ -4989,37 +4989,37 @@
       <c r="H74" s="60"/>
     </row>
     <row r="75" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="130" t="s">
+      <c r="A75" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="130"/>
-      <c r="C75" s="130" t="s">
+      <c r="B75" s="132"/>
+      <c r="C75" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="130"/>
+      <c r="D75" s="132"/>
       <c r="E75" s="81"/>
-      <c r="F75" s="132" t="s">
+      <c r="F75" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="132"/>
+      <c r="G75" s="134"/>
       <c r="H75" s="78" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="131" t="s">
+      <c r="A76" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="131"/>
-      <c r="C76" s="131" t="s">
+      <c r="B76" s="133"/>
+      <c r="C76" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="131"/>
+      <c r="D76" s="133"/>
       <c r="E76" s="82"/>
-      <c r="F76" s="131" t="s">
+      <c r="F76" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="131"/>
+      <c r="G76" s="133"/>
       <c r="H76" s="77" t="s">
         <v>6</v>
       </c>
@@ -5059,8 +5059,8 @@
       <c r="D80" s="72"/>
       <c r="E80" s="82"/>
       <c r="F80" s="63"/>
-      <c r="G80" s="131"/>
-      <c r="H80" s="131"/>
+      <c r="G80" s="133"/>
+      <c r="H80" s="133"/>
     </row>
     <row r="81" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="61"/>
@@ -5073,41 +5073,41 @@
       <c r="H81" s="61"/>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="131" t="s">
+      <c r="A82" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="131"/>
-      <c r="C82" s="131" t="s">
+      <c r="B82" s="133"/>
+      <c r="C82" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="D82" s="131"/>
+      <c r="D82" s="133"/>
       <c r="E82" s="82"/>
-      <c r="F82" s="133" t="s">
+      <c r="F82" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="133"/>
+      <c r="G82" s="135"/>
       <c r="H82" s="77" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F84" s="129"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="129"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="131"/>
+      <c r="H84" s="131"/>
     </row>
     <row r="85" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C88" s="128" t="s">
+      <c r="C88" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
-      <c r="H88" s="128"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
+      <c r="G88" s="130"/>
+      <c r="H88" s="130"/>
     </row>
     <row r="89" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5118,6 +5118,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D48:D49"/>
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="F84:H84"/>
     <mergeCell ref="A75:B75"/>
@@ -5130,16 +5140,6 @@
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D48:D49"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5172,99 +5172,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="137" t="s">
+      <c r="A1" s="161"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="113" t="s">
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="113"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="143"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="113" t="s">
+      <c r="A2" s="164"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="113"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="113" t="s">
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="113"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="109" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="92"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="136"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="75" t="s">
         <v>122</v>
       </c>
@@ -5290,36 +5290,36 @@
       <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134" t="s">
+      <c r="B9" s="173"/>
+      <c r="C9" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134" t="s">
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="173"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151" t="s">
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="151"/>
+      <c r="H10" s="172"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -5332,27 +5332,34 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149" t="s">
+      <c r="B15" s="170"/>
+      <c r="C15" s="170" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149" t="s">
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="149"/>
+      <c r="H15" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -5369,13 +5376,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -5405,42 +5405,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="155" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="157"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="154"/>
+      <c r="B5" s="178"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -5679,32 +5679,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="164" t="s">
+      <c r="E37" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="164"/>
+      <c r="F37" s="188"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="152" t="s">
+      <c r="B38" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="152"/>
+      <c r="C38" s="176"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="152" t="s">
+      <c r="E38" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="152"/>
+      <c r="F38" s="176"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="153"/>
+      <c r="C39" s="177"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="153" t="s">
+      <c r="E39" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="153"/>
+      <c r="F39" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5749,78 +5749,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="177" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="179"/>
-      <c r="L2" s="180"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="196"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="178" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="179"/>
-      <c r="L3" s="180"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="196"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="178" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="179"/>
-      <c r="L4" s="180"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="196"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -5912,58 +5912,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="174" t="s">
+      <c r="D21" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="169" t="s">
+      <c r="E21" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="169" t="s">
+      <c r="F21" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169" t="s">
+      <c r="G21" s="189"/>
+      <c r="H21" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="169" t="s">
+      <c r="I21" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="169" t="s">
+      <c r="J21" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="167" t="s">
+      <c r="K21" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="165" t="s">
+      <c r="L21" s="197" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="169"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="189"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="166"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="198"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -6008,45 +6008,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="172" t="s">
+      <c r="D26" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152" t="s">
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="152"/>
-      <c r="H27" s="152" t="s">
+      <c r="F27" s="176"/>
+      <c r="H27" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153" t="s">
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="153"/>
-      <c r="I28" s="153" t="s">
+      <c r="F28" s="177"/>
+      <c r="I28" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="153"/>
+      <c r="J28" s="177"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6081,74 +6081,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="202"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="171" t="s">
+      <c r="A33" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
+      <c r="B33" s="202"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="170" t="s">
+      <c r="A34" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="201"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="170" t="s">
+      <c r="A35" s="201" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="201"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="170" t="s">
+      <c r="A36" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="170"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="201"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6156,22 +6156,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -6188,6 +6172,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -6220,62 +6220,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="186" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="217" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="178" t="s">
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="180"/>
+      <c r="K2" s="196"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="178" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="180"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="178" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="180"/>
+      <c r="K4" s="196"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6289,12 +6289,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
+      <c r="K6" s="219"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -6324,10 +6324,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="182" t="s">
+      <c r="J7" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="183"/>
+      <c r="K7" s="214"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -6341,8 +6341,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="191"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="207"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -6356,8 +6356,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="191"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="207"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -6371,8 +6371,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="193"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="209"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -6386,8 +6386,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="193"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="209"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -6401,8 +6401,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="193"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="209"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -6416,14 +6416,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="193"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="209"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="184" t="s">
+      <c r="A14" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="185"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -6431,35 +6431,44 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="211"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="189" t="s">
+      <c r="A16" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="189"/>
-      <c r="C16" s="189"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="189" t="s">
+      <c r="E16" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="205"/>
+      <c r="G16" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189" t="s">
+      <c r="H16" s="205"/>
+      <c r="I16" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -6471,15 +6480,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -6519,48 +6519,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="178" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="180"/>
+      <c r="J2" s="196"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="178" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="180"/>
+      <c r="J3" s="196"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="178" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="180"/>
+      <c r="J4" s="196"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6606,11 +6606,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -6620,174 +6620,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="199" t="s">
+      <c r="H8" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="221"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="196"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="225"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="196"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="225"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="196"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="225"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="196"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="225"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="196"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="225"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="196"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="225"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="196"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="225"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="196"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="225"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="196"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="225"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="196"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="225"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="198"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="227"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6802,42 +6802,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95" t="s">
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6847,9 +6847,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6859,9 +6859,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6871,9 +6871,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -6881,6 +6881,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -6888,38 +6920,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
